--- a/examples/sources/data/unsolved/to_schedule/2019-02-26.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-02-26.xlsx
@@ -4972,7 +4972,7 @@
         <v>1</v>
       </c>
       <c r="N95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O95" s="2">
         <v>43522</v>
@@ -5013,7 +5013,7 @@
         <v>1</v>
       </c>
       <c r="N96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O96" s="2">
         <v>43522</v>
@@ -5133,7 +5133,7 @@
         <v>0</v>
       </c>
       <c r="M99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N99">
         <v>1</v>
@@ -5259,7 +5259,7 @@
         <v>1</v>
       </c>
       <c r="N102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O102" s="2">
         <v>43522</v>
@@ -5388,7 +5388,7 @@
         <v>0</v>
       </c>
       <c r="M105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N105">
         <v>1</v>
@@ -6185,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="M124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N124">
         <v>1</v>
@@ -6308,7 +6308,7 @@
         <v>0</v>
       </c>
       <c r="M127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N127">
         <v>1</v>
@@ -6352,7 +6352,7 @@
         <v>1</v>
       </c>
       <c r="N128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O128" s="2">
         <v>43522</v>
@@ -6434,7 +6434,7 @@
         <v>1</v>
       </c>
       <c r="N130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O130" s="2">
         <v>43522</v>
@@ -6475,7 +6475,7 @@
         <v>1</v>
       </c>
       <c r="N131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O131" s="2">
         <v>43522</v>
@@ -6513,7 +6513,7 @@
         <v>0</v>
       </c>
       <c r="M132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N132">
         <v>1</v>
@@ -6639,7 +6639,7 @@
         <v>1</v>
       </c>
       <c r="N135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O135" s="2">
         <v>43522</v>
@@ -6721,7 +6721,7 @@
         <v>1</v>
       </c>
       <c r="N137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O137" s="2">
         <v>43522</v>
@@ -6862,7 +6862,7 @@
         <v>1</v>
       </c>
       <c r="N140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O140" s="2">
         <v>43522</v>
@@ -10760,7 +10760,7 @@
         <v>1</v>
       </c>
       <c r="N232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O232" s="2">
         <v>43522</v>
